--- a/personal space(program)/JapPlan.xlsx
+++ b/personal space(program)/JapPlan.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BD886-87C4-4D25-B094-5DC64C928CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EDBCB-A4E3-4EA7-99B6-E917CBEB208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.09" sheetId="1" r:id="rId1"/>
+    <sheet name="2023.10" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>列1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +51,6 @@
   </si>
   <si>
     <t>评语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,6 +65,56 @@
   </si>
   <si>
     <t>完成进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成第四课和单元复习
+3.完成第三课单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周算是情有可原，因为工作稍忙，
+白天没什么时间整理日语笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周(9.11-9.17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成第五课以及第六课
+2.完成第四课第五课单词
+3.复习以前的语法（起码3课）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体不适偶感风寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成第四课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周(9.18-9.24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋长假加上小余回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周（10.16-10.23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成第6课以及第7课
+2.完成第5课第6课单词
+3.复习以前的语法（起码3课）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,11 +184,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -160,11 +215,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2C0A7E7-4DE4-47C6-8191-3BFDEEC7D7F2}" name="表1" displayName="表1" ref="A1:E20" totalsRowShown="0">
   <autoFilter ref="A1:E20" xr:uid="{A2C0A7E7-4DE4-47C6-8191-3BFDEEC7D7F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4D9A6BB-6B52-4E90-846D-F9BBB04FD0B0}" name="列1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A4D9A6BB-6B52-4E90-846D-F9BBB04FD0B0}" name="列1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9084C747-63D0-4093-8DCE-9C185716FFE1}" name="计划项"/>
     <tableColumn id="3" xr3:uid="{A48A8C26-5122-4855-8D74-146F1BCCED44}" name="完成项"/>
     <tableColumn id="13" xr3:uid="{EC77B5BF-5D5E-423C-A230-7A561DF92B80}" name="完成进度"/>
     <tableColumn id="4" xr3:uid="{04B5A6EA-D7D9-4626-8F0A-725264DA1967}" name="评语"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D824DC5C-F512-43BE-AD6B-0C2B0F9328FF}" name="表1_3" displayName="表1_3" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{A2C0A7E7-4DE4-47C6-8191-3BFDEEC7D7F2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{47432BB8-82DE-408F-9B07-7C8717AE2A00}" name="列1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B192D369-DBF9-45C5-980E-2C4D6223D790}" name="计划项"/>
+    <tableColumn id="3" xr3:uid="{DF01B9F9-2523-4AE2-AE11-40B165F82DBC}" name="完成项"/>
+    <tableColumn id="13" xr3:uid="{65E65BB5-7A1A-4568-B816-5114FCF69D78}" name="完成进度"/>
+    <tableColumn id="4" xr3:uid="{E54B91B1-988E-4A80-AFE7-710692F9AB5C}" name="评语"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -456,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -464,37 +535,57 @@
     </row>
     <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -596,4 +687,188 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764B25CD-9BE0-4A36-B13F-7EABD8398FB0}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>